--- a/3SIT-2024-FerramentaFPA-ProfRJP-Manual.xlsx
+++ b/3SIT-2024-FerramentaFPA-ProfRJP-Manual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082E2212-406E-40C1-A2DA-AA9E6D7C3B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBEDEDD-C23D-4EEE-A03E-04B0ED608104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>COMPONENTE FUNCIONAL BÁSICO (CFB)</t>
   </si>
@@ -1499,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="C5" s="12">
         <f>SUM(H9:H240)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1617,8 +1617,12 @@
       <c r="F10" s="30">
         <v>4</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
@@ -1639,8 +1643,12 @@
       <c r="F11" s="30">
         <v>4</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="30"/>
+      <c r="G11" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:8" s="31" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
@@ -1661,8 +1669,12 @@
       <c r="F12" s="30">
         <v>10</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="30"/>
+      <c r="G12" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="30">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="31" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
@@ -1683,8 +1695,12 @@
       <c r="F13" s="30">
         <v>8</v>
       </c>
-      <c r="G13" s="33"/>
-      <c r="H13" s="30"/>
+      <c r="G13" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="30">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
@@ -4124,7 +4140,7 @@
       </c>
       <c r="F7">
         <f>'Pontos Nao Ajustados'!C5</f>
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4143,7 +4159,7 @@
       </c>
       <c r="F9" s="12">
         <f>F5*F7</f>
-        <v>0</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
